--- a/biology/Botanique/Côtes-de-Bourg/Côtes-de-Bourg.xlsx
+++ b/biology/Botanique/Côtes-de-Bourg/Côtes-de-Bourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-Bourg</t>
+          <t>Côtes-de-Bourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côtes-de-Bourg[1], appelé aussi Bourg ou bourgeais, est un vin français d'appellation d'origine contrôlée produit autour de Bourg, sur la rive droite de la Dordogne et de la Gironde, à 35 kilomètres au nord de Bordeaux.
+Le côtes-de-Bourg, appelé aussi Bourg ou bourgeais, est un vin français d'appellation d'origine contrôlée produit autour de Bourg, sur la rive droite de la Dordogne et de la Gironde, à 35 kilomètres au nord de Bordeaux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-Bourg</t>
+          <t>Côtes-de-Bourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La naissance de l'AOC date de septembre 1936 pour les rouges et de mai 1945 pour les blancs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-Bourg</t>
+          <t>Côtes-de-Bourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'appellation
-Ce terroir s'étend sur quinze communes viticoles : Bayon-sur-Gironde, Bourg, Comps, Gauriac, Lansac, Mombrier, Prignac-et-Marcamps, Pugnac, Saint-Ciers-de-Canesse, Saint-Seurin-de-Bourg, Saint-Trojan, Samonac, Tauriac, Teuillac et Villeneuve.
-Surface et encépagement
-Le vignoble englobe 3 850 hectares de cépages rouges en production, essentiellement du merlot mais aussi du cabernet franc, du cabernet sauvignon et un peu de malbec, soit 83 % de la surface totale délimitée par l'AOC ainsi que 25 hectares en blanc. Le cépage Sauvignon y prédomine. La production en rouge représente environ 220 000 hectolitres par an et 1 200 hectolitres par an pour le blanc.
-Le terroir possède environ 550 producteurs qui exportent 15 % de leur production annuelle dont près de 80 % en Europe.
+          <t>Aire de l'appellation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir s'étend sur quinze communes viticoles : Bayon-sur-Gironde, Bourg, Comps, Gauriac, Lansac, Mombrier, Prignac-et-Marcamps, Pugnac, Saint-Ciers-de-Canesse, Saint-Seurin-de-Bourg, Saint-Trojan, Samonac, Tauriac, Teuillac et Villeneuve.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-Bourg</t>
+          <t>Côtes-de-Bourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +591,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surface et encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble englobe 3 850 hectares de cépages rouges en production, essentiellement du merlot mais aussi du cabernet franc, du cabernet sauvignon et un peu de malbec, soit 83 % de la surface totale délimitée par l'AOC ainsi que 25 hectares en blanc. Le cépage Sauvignon y prédomine. La production en rouge représente environ 220 000 hectolitres par an et 1 200 hectolitres par an pour le blanc.
+Le terroir possède environ 550 producteurs qui exportent 15 % de leur production annuelle dont près de 80 % en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-Bourg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-Bourg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les producteurs de l'appellation, on trouve plusieurs châteaux et domaines :
 le château de la Grave (style Louis XIII) à Bourg
-la maison du vin des Côtes-de-Bourg, à Bourg[5]
+la maison du vin des Côtes-de-Bourg, à Bourg
 le château Colbert (néo-gothique) à Comps
 le château Fougas, et le Château La Croix Davids à Lansac
 le château de Monteberiot à Mombrier
